--- a/ForSZU/time.xlsx
+++ b/ForSZU/time.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Notes\ForSZU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25E109A-5789-4878-9FF3-26DC6402E31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988BC645-BF92-4BE0-B602-D75C448AF62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12195" yWindow="1815" windowWidth="11625" windowHeight="8700" xr2:uid="{72D55CEA-563E-49C6-A9F9-882865430C6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{72D55CEA-563E-49C6-A9F9-882865430C6E}"/>
   </bookViews>
   <sheets>
-    <sheet name="daily" sheetId="1" r:id="rId1"/>
-    <sheet name="4月" sheetId="2" r:id="rId2"/>
+    <sheet name="mark" sheetId="1" r:id="rId1"/>
+    <sheet name="daily" sheetId="3" r:id="rId2"/>
+    <sheet name="4" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +68,14 @@
     <t>高数练习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天晚上开了个实习会议，所以晚上没怎么学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +84,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,7 +125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,11 +153,14 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,15 +211,222 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>daily!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>daily!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>m/d;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>daily!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.25347222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9305555555555536E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.944444444444442E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D482-4D58-8DE2-F749C7315023}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>daily!$H$1</c:f>
+              <c:f>daily!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>高数</c:v>
+                  <c:v>高数练习</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -222,11 +441,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -287,10 +501,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>daily!$G$2:$G$5</c:f>
+              <c:f>daily!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44666</c:v>
                 </c:pt>
@@ -302,26 +516,98 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$H$2:$H$5</c:f>
+              <c:f>daily!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.25347222222222221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9305555555555536E-2</c:v>
+                  <c:v>0.11805555555555569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.944444444444442E-2</c:v>
+                  <c:v>0.16666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.18333333333333324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -338,11 +624,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>daily!$I$1</c:f>
+              <c:f>daily!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>高数练习</c:v>
+                  <c:v>墨墨</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -417,10 +703,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>daily!$G$2:$G$5</c:f>
+              <c:f>daily!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44666</c:v>
                 </c:pt>
@@ -432,27 +718,99 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$I$2:$I$5</c:f>
+              <c:f>daily!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm;@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.4027777777777768E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11805555555555569</c:v>
+                  <c:v>1.736111111111116E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666674</c:v>
+                  <c:v>2.083333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18333333333333324</c:v>
+                  <c:v>1.736111111111116E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,136 +818,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2D31-4A0E-A1C8-1A0A4CC6136E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>daily!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>墨墨</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>daily!$G$2:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>44666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44669</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>daily!$J$2:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm;@</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.4027777777777768E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.736111111111116E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.083333333333337E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2D31-4A0E-A1C8-1A0A4CC6136E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -606,160 +834,7 @@
         <c:overlap val="100"/>
         <c:axId val="694662816"/>
         <c:axId val="694657240"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>daily!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>日期</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="zh-CN"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>daily!$G$2:$G$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>m/d;@</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>44666</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>44667</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>44668</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>44669</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>daily!$G$2:$G$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>m/d;@</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>44666</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>44667</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>44668</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>44669</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-D482-4D58-8DE2-F749C7315023}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:dateAx>
         <c:axId val="694662816"/>
@@ -917,7 +992,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
@@ -1846,19 +1921,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162C499C-FD3A-4C4D-8378-8FD4C0BFF15F}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="5" width="9" style="3"/>
+    <col min="3" max="5" width="9" style="8"/>
     <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="3" customWidth="1"/>
     <col min="11" max="19" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1869,28 +1944,15 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -1917,29 +1979,6 @@
         <f>IF($D2-$C2&gt;0,$D2-$C2, "")</f>
         <v>0.19097222222222221</v>
       </c>
-      <c r="G2" s="10">
-        <v>44666</v>
-      </c>
-      <c r="H2" s="8">
-        <f t="shared" ref="H2:J5" si="0">IF(AND($G2&lt;&gt;"",H$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,H$1,$A:$A,$G2),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="I2" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <f t="shared" si="0"/>
-        <v>3.4027777777777768E-2</v>
-      </c>
-      <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:L17" si="1">IF(AND($G2&lt;&gt;"",K$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,K$1,$A:$A,$G2),"")</f>
-        <v/>
-      </c>
-      <c r="L2" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
@@ -1958,29 +1997,6 @@
         <f>IF($D3-$C3&gt;0,$D3-$C3, "")</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G3" s="10">
-        <v>44667</v>
-      </c>
-      <c r="H3" s="8">
-        <f t="shared" si="0"/>
-        <v>9.9305555555555536E-2</v>
-      </c>
-      <c r="I3" s="8">
-        <f t="shared" si="0"/>
-        <v>0.11805555555555569</v>
-      </c>
-      <c r="J3" s="8">
-        <f t="shared" si="0"/>
-        <v>1.736111111111116E-2</v>
-      </c>
-      <c r="K3" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L3" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
@@ -1996,31 +2012,8 @@
         <v>1.0027777777777778</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E39" si="2">IF($D4-$C4&gt;0,$D4-$C4, "")</f>
+        <f t="shared" ref="E4:E39" si="0">IF($D4-$C4&gt;0,$D4-$C4, "")</f>
         <v>3.4027777777777768E-2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>44668</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="0"/>
-        <v>6.944444444444442E-2</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2037,31 +2030,8 @@
         <v>0.73055555555555562</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.11805555555555569</v>
-      </c>
-      <c r="G5" s="10">
-        <v>44669</v>
-      </c>
-      <c r="H5" s="8">
-        <f>IF(AND($G5&lt;&gt;"",H$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,H$1,$A:$A,$G5),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.18333333333333324</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -2078,16 +2048,8 @@
         <v>0.9277777777777777</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.9305555555555536E-2</v>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -2104,18 +2066,10 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="K7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -2131,18 +2085,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.944444444444442E-2</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="K8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
@@ -2158,18 +2104,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="K9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
@@ -2185,18 +2123,10 @@
         <v>0.92013888888888884</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="K10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -2212,18 +2142,10 @@
         <v>0.5625</v>
       </c>
       <c r="E11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="K11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
@@ -2239,1453 +2161,729 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.13472222222222219</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="K12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="A13" s="10">
+        <v>44669</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="K13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E14" s="3" t="str">
-        <f t="shared" si="2"/>
+      <c r="E14" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" s="3"/>
-      <c r="K14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E15" s="3" t="str">
-        <f t="shared" si="2"/>
+      <c r="E15" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F15" s="3"/>
-      <c r="K15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E17" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K18" s="3" t="str">
-        <f t="shared" ref="K18:L34" si="3">IF(AND($G18&lt;&gt;"",K$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,K$1,$A:$A,$G18),"")</f>
-        <v/>
-      </c>
-      <c r="L18" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K19" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L19" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="3" t="str">
-        <f t="shared" si="2"/>
+      <c r="E16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J20" s="3" t="str">
-        <f t="shared" ref="J20:J51" si="4">IF(AND($G20&lt;&gt;"",J$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,J$1,$A:$A,$G20),"")</f>
-        <v/>
-      </c>
-      <c r="K20" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L20" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G20&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G20),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J21" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K21" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L21" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G21&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G21),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J22" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K22" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L22" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G22&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G22),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J23" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K23" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L23" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G23&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G23),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J24" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K24" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L24" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E25" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G24&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G24),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J25" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K25" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L25" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G25&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G25),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J26" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K26" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L26" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E27" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G26&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G26),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J27" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K27" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L27" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G27&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G27),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J28" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K28" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L28" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G28&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G28),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J29" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L29" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E30" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G29&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G29),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J30" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K30" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L30" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E31" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G30&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G30),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J31" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K31" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L31" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G31&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G31),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J32" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K32" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L32" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G32&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G32),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E33" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J33" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K33" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L33" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E34" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G33&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G33),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E34" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J34" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K34" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L34" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E35" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G34&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G34),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E35" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J35" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K35" s="3" t="str">
-        <f t="shared" ref="K35:L66" si="5">IF(AND($G35&lt;&gt;"",K$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,K$1,$A:$A,$G35),"")</f>
-        <v/>
-      </c>
-      <c r="L35" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E36" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G35&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G35),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E36" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J36" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K36" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L36" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E37" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G36&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G36),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E37" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J37" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K37" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L37" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E38" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G37&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G37),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E38" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J38" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K38" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L38" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E39" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND($G38&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G38),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E39" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J39" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K39" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L39" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G39&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G39),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J40" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K40" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L40" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G40&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G40),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J41" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K41" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L41" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G41&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G41),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J42" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K42" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L42" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G42&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G42),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J43" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K43" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L43" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G43&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G43),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J44" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K44" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L44" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G44&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G44),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J45" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K45" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L45" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G45&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G45),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J46" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K46" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L46" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G46&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G46),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J47" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K47" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L47" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G47&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G47),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J48" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K48" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L48" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G48&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G48),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K49" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L49" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G49&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G49),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K50" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L50" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G50&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G50),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K51" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L51" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G51&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G51),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="3" t="str">
-        <f t="shared" ref="J52:J83" si="6">IF(AND($G52&lt;&gt;"",J$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,J$1,$A:$A,$G52),"")</f>
-        <v/>
-      </c>
-      <c r="K52" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L52" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G52&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G52),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K53" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L53" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G53&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G53),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K54" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L54" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G54&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G54),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K55" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L55" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G55&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G55),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K56" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L56" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G56&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G56),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K57" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L57" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G57&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G57),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K58" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L58" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G58&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G58),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K59" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L59" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G59&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G59),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K60" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L60" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G60&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G60),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K61" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L61" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G61&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G61),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K62" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L62" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G62&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G62),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K63" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L63" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G63&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G63),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K64" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L64" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G64&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G64),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K65" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L65" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G65&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G65),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K66" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L66" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G66&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G66),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K67" s="3" t="str">
-        <f t="shared" ref="K67:L108" si="7">IF(AND($G67&lt;&gt;"",K$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,K$1,$A:$A,$G67),"")</f>
-        <v/>
-      </c>
-      <c r="L67" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G67&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G67),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K68" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L68" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G68&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G68),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K69" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L69" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G69&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G69),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K70" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L70" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G70&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G70),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J71" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K71" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L71" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G71&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G71),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J72" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K72" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L72" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G72&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G72),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J73" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K73" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L73" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G73&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G73),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J74" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K74" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L74" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G74&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G74),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J75" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K75" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L75" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G75&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G75),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J76" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K76" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L76" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G76&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G76),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J77" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K77" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L77" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G77&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G77),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J78" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K78" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L78" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G78&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G78),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J79" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K79" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L79" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G79&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G79),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J80" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K80" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L80" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G80&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G80),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J81" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K81" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L81" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G81&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G81),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J82" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K82" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L82" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G82&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G82),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J83" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K83" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L83" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G83&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G83),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J84" s="3" t="str">
-        <f t="shared" ref="J84:J108" si="8">IF(AND($G84&lt;&gt;"",J$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,J$1,$A:$A,$G84),"")</f>
-        <v/>
-      </c>
-      <c r="K84" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L84" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G84&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G84),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J85" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K85" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L85" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G85&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G85),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J86" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K86" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L86" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G86&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G86),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J87" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K87" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L87" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G87&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G87),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J88" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K88" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L88" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G88&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G88),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J89" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K89" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L89" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G89&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G89),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J90" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K90" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L90" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G90&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G90),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J91" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K91" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L91" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G91&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G91),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J92" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K92" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L92" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G92&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G92),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J93" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K93" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L93" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G93&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G93),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J94" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K94" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L94" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G94&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G94),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J95" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K95" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L95" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="10:12" x14ac:dyDescent="0.2">
+        <f>IF(AND($G95&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G95),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J96" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K96" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L96" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G96&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G96),"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J97" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K97" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L97" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G97&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G97),"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J98" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K98" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L98" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G98&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G98),"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J99" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K99" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L99" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G99&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G99),"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J100" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K100" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L100" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G100&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G100),"")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J101" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K101" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L101" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G101&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G101),"")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J102" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K102" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L102" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G102&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G102),"")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J103" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K103" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L103" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G103&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G103),"")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J104" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K104" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(AND($G104&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G104),"")</f>
+        <v/>
+      </c>
+      <c r="K104" s="3" t="e">
+        <f>IF(AND($G104&lt;&gt;"",#REF!&lt;&gt;""),SUMIFS($E:$E,$B:$B,#REF!,$A:$A,$G104),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="L104" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G104&lt;&gt;"",L$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,L$1,$A:$A,$G104),"")</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J105" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K105" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(AND($G105&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G105),"")</f>
+        <v/>
+      </c>
+      <c r="K105" s="3" t="e">
+        <f>IF(AND($G105&lt;&gt;"",#REF!&lt;&gt;""),SUMIFS($E:$E,$B:$B,#REF!,$A:$A,$G105),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="L105" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G105&lt;&gt;"",L$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,L$1,$A:$A,$G105),"")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J106" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K106" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(AND($G106&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G106),"")</f>
+        <v/>
+      </c>
+      <c r="K106" s="3" t="e">
+        <f>IF(AND($G106&lt;&gt;"",#REF!&lt;&gt;""),SUMIFS($E:$E,$B:$B,#REF!,$A:$A,$G106),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="L106" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G106&lt;&gt;"",L$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,L$1,$A:$A,$G106),"")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J107" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K107" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(AND($G107&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G107),"")</f>
+        <v/>
+      </c>
+      <c r="K107" s="3" t="e">
+        <f>IF(AND($G107&lt;&gt;"",#REF!&lt;&gt;""),SUMIFS($E:$E,$B:$B,#REF!,$A:$A,$G107),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="L107" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G107&lt;&gt;"",L$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,L$1,$A:$A,$G107),"")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J108" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K108" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(AND($G108&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G108),"")</f>
+        <v/>
+      </c>
+      <c r="K108" s="3" t="e">
+        <f>IF(AND($G108&lt;&gt;"",#REF!&lt;&gt;""),SUMIFS($E:$E,$B:$B,#REF!,$A:$A,$G108),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="L108" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(AND($G108&lt;&gt;"",L$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,L$1,$A:$A,$G108),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <dataConsolidate topLabels="1">
     <dataRefs count="6">
-      <dataRef ref="A1:E4" sheet="daily"/>
-      <dataRef ref="A1:E5" sheet="daily"/>
-      <dataRef ref="A2:E3" sheet="daily"/>
-      <dataRef ref="A2:E4" sheet="daily"/>
+      <dataRef ref="A1:E4" sheet="mark"/>
+      <dataRef ref="A1:E5" sheet="mark"/>
+      <dataRef ref="A2:E3" sheet="mark"/>
+      <dataRef ref="A2:E4" sheet="mark"/>
       <dataRef name="$A:$A,$E:$E"/>
       <dataRef name="$A2:$A4,$E2:$E4"/>
     </dataRefs>
@@ -3697,6 +2895,317 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD22EC45-D055-4B95-9C83-FCF93466C740}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="10">
+        <v>44666</v>
+      </c>
+      <c r="C2" s="8">
+        <f>IF(AND($B2&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B2),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="D2" s="8">
+        <f>IF(AND($B2&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B2),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <f>IF(AND($B2&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B2),"")</f>
+        <v>3.4027777777777768E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="10">
+        <v>44667</v>
+      </c>
+      <c r="C3" s="8">
+        <f>IF(AND($B3&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B3),"")</f>
+        <v>9.9305555555555536E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <f>IF(AND($B3&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B3),"")</f>
+        <v>0.11805555555555569</v>
+      </c>
+      <c r="E3" s="8">
+        <f>IF(AND($B3&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B3),"")</f>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10">
+        <v>44668</v>
+      </c>
+      <c r="C4" s="8">
+        <f>IF(AND($B4&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B4),"")</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <f>IF(AND($B4&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B4),"")</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E4" s="8">
+        <f>IF(AND($B4&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B4),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44669</v>
+      </c>
+      <c r="C5" s="8">
+        <f>IF(AND($B5&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B5),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <f>IF(AND($B5&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B5),"")</f>
+        <v>0.18333333333333324</v>
+      </c>
+      <c r="E5" s="8">
+        <f>IF(AND($B5&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B5),"")</f>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="10">
+        <v>44670</v>
+      </c>
+      <c r="C6" s="8">
+        <f>IF(AND($B6&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <f>IF(AND($B6&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <f>IF(AND($B6&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B6),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="10">
+        <v>44671</v>
+      </c>
+      <c r="C7" s="8">
+        <f>IF(AND($B7&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <f>IF(AND($B7&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B7),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <f>IF(AND($B7&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B7),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="10">
+        <v>44672</v>
+      </c>
+      <c r="C8" s="8">
+        <f>IF(AND($B8&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B8),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <f>IF(AND($B8&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B8),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <f>IF(AND($B8&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B8),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="10">
+        <v>44673</v>
+      </c>
+      <c r="C9" s="8">
+        <f>IF(AND($B9&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B9),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <f>IF(AND($B9&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B9),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f>IF(AND($B9&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B9),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="10">
+        <v>44674</v>
+      </c>
+      <c r="C10" s="8">
+        <f>IF(AND($B10&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B10),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <f>IF(AND($B10&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B10),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <f>IF(AND($B10&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B10),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="10">
+        <v>44675</v>
+      </c>
+      <c r="C11" s="8">
+        <f>IF(AND($B11&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B11),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <f>IF(AND($B11&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B11),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <f>IF(AND($B11&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B11),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="10">
+        <v>44676</v>
+      </c>
+      <c r="C12" s="8">
+        <f>IF(AND($B12&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B12),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <f>IF(AND($B12&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B12),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <f>IF(AND($B12&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B12),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="10">
+        <v>44677</v>
+      </c>
+      <c r="C13" s="8">
+        <f>IF(AND($B13&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B13),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <f>IF(AND($B13&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B13),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <f>IF(AND($B13&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B13),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="10">
+        <v>44678</v>
+      </c>
+      <c r="C14" s="8">
+        <f>IF(AND($B14&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B14),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <f>IF(AND($B14&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B14),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <f>IF(AND($B14&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B14),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="10">
+        <v>44679</v>
+      </c>
+      <c r="C15" s="8">
+        <f>IF(AND($B15&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B15),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <f>IF(AND($B15&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B15),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <f>IF(AND($B15&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B15),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="10">
+        <v>44680</v>
+      </c>
+      <c r="C16" s="8">
+        <f>IF(AND($B16&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B16),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <f>IF(AND($B16&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B16),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <f>IF(AND($B16&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B16),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="10">
+        <v>44681</v>
+      </c>
+      <c r="C17" s="8">
+        <f>IF(AND($B17&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B17),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <f>IF(AND($B17&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B17),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <f>IF(AND($B17&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B17),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB6B33A-FAA2-4895-A089-755624B60A35}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/ForSZU/time.xlsx
+++ b/ForSZU/time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Notes\ForSZU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988BC645-BF92-4BE0-B602-D75C448AF62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD043272-9A35-4BAF-9AAE-361EE477A24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{72D55CEA-563E-49C6-A9F9-882865430C6E}"/>
+    <workbookView xWindow="8985" yWindow="4620" windowWidth="11625" windowHeight="8700" activeTab="2" xr2:uid="{72D55CEA-563E-49C6-A9F9-882865430C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="mark" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,6 +70,22 @@
   </si>
   <si>
     <t>今天晚上开了个实习会议，所以晚上没怎么学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天在改论文，没学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天装桌子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,11 +227,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>daily!$C$1</c:f>
+              <c:f>daily!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>高数</c:v>
+                  <c:v>高数课</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -238,6 +250,11 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-0F4A-4B78-B6C5-A6CE738C0FBB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -356,7 +373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$C$2:$C$17</c:f>
+              <c:f>daily!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="16"/>
@@ -373,7 +390,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.13680555555555551</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -422,7 +439,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>daily!$D$1</c:f>
+              <c:f>daily!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -558,7 +575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$D$2:$D$17</c:f>
+              <c:f>daily!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="16"/>
@@ -575,16 +592,16 @@
                   <c:v>0.18333333333333324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.11527777777777781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.2465277777777779</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666741E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -624,7 +641,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>daily!$E$1</c:f>
+              <c:f>daily!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -760,7 +777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>daily!$E$2:$E$17</c:f>
+              <c:f>daily!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="16"/>
@@ -777,16 +794,16 @@
                   <c:v>1.736111111111116E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.0555555555555669E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.1527777777777923E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.5555555555555636E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.8055555555555602E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1921,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162C499C-FD3A-4C4D-8378-8FD4C0BFF15F}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1951,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1967,7 +1984,7 @@
         <v>44666</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7">
         <v>0.5625</v>
@@ -1985,7 +2002,7 @@
         <v>44666</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
         <v>0.89583333333333337</v>
@@ -2003,7 +2020,7 @@
         <v>44666</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8">
         <v>0.96875</v>
@@ -2021,7 +2038,7 @@
         <v>44667</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="8">
         <v>0.61249999999999993</v>
@@ -2039,7 +2056,7 @@
         <v>44667</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8">
         <v>0.82847222222222217</v>
@@ -2057,7 +2074,7 @@
         <v>44667</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8">
         <v>0.93055555555555547</v>
@@ -2076,7 +2093,7 @@
         <v>44668</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8">
         <v>0.59722222222222221</v>
@@ -2095,7 +2112,7 @@
         <v>44668</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>0.72916666666666663</v>
@@ -2114,7 +2131,7 @@
         <v>44668</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="8">
         <v>0.89930555555555547</v>
@@ -2133,7 +2150,7 @@
         <v>44669</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>0.51388888888888895</v>
@@ -2152,7 +2169,7 @@
         <v>44669</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="8">
         <v>0.57708333333333328</v>
@@ -2171,7 +2188,7 @@
         <v>44669</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="8">
         <v>0.96180555555555547</v>
@@ -2186,170 +2203,350 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A14" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>9.7222222222221877E-3</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A15" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A16" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333282E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>3.4027777777777768E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555625E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.9277777777777777</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>8.8194444444444464E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.98125000000000007</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444531E-2</v>
       </c>
       <c r="J20" s="3" t="str">
-        <f>IF(AND($G20&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G20),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(AND($G20&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G20),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>44670</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.98819444444444438</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.01875</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0555555555555669E-2</v>
       </c>
       <c r="J21" s="3" t="str">
-        <f>IF(AND($G21&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G21),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(AND($G21&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G21),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>44671</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f>IF(AND($G22&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G22),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(AND($G22&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G22),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>44671</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9305555555555602E-2</v>
       </c>
       <c r="J23" s="3" t="str">
-        <f>IF(AND($G23&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G23),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(AND($G23&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G23),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>44671</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12083333333333346</v>
       </c>
       <c r="J24" s="3" t="str">
-        <f>IF(AND($G24&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G24),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(AND($G24&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G24),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>44671</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1527777777777923E-2</v>
       </c>
       <c r="J25" s="3" t="str">
-        <f>IF(AND($G25&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G25),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(AND($G25&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G25),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>44672</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555636E-3</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f>IF(AND($G26&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G26),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(AND($G26&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G26),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>44673</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.91180555555555554</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555602E-2</v>
       </c>
       <c r="J27" s="3" t="str">
-        <f>IF(AND($G27&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G27),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(AND($G27&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G27),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>44673</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.97569444444444453</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="J28" s="3" t="str">
-        <f>IF(AND($G28&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G28),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+        <f>IF(AND($G28&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G28),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E29" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J29" s="3" t="str">
-        <f>IF(AND($G29&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G29),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+        <f>IF(AND($G29&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G29),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J30" s="3" t="str">
-        <f>IF(AND($G30&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G30),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+        <f>IF(AND($G30&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G30),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E31" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J31" s="3" t="str">
-        <f>IF(AND($G31&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G31),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+        <f>IF(AND($G31&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G31),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E32" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J32" s="3" t="str">
-        <f>IF(AND($G32&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G32),"")</f>
+        <f>IF(AND($G32&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G32),"")</f>
         <v/>
       </c>
     </row>
@@ -2359,7 +2556,7 @@
         <v/>
       </c>
       <c r="J33" s="3" t="str">
-        <f>IF(AND($G33&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G33),"")</f>
+        <f>IF(AND($G33&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G33),"")</f>
         <v/>
       </c>
     </row>
@@ -2369,7 +2566,7 @@
         <v/>
       </c>
       <c r="J34" s="3" t="str">
-        <f>IF(AND($G34&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G34),"")</f>
+        <f>IF(AND($G34&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G34),"")</f>
         <v/>
       </c>
     </row>
@@ -2379,7 +2576,7 @@
         <v/>
       </c>
       <c r="J35" s="3" t="str">
-        <f>IF(AND($G35&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G35),"")</f>
+        <f>IF(AND($G35&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G35),"")</f>
         <v/>
       </c>
     </row>
@@ -2389,7 +2586,7 @@
         <v/>
       </c>
       <c r="J36" s="3" t="str">
-        <f>IF(AND($G36&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G36),"")</f>
+        <f>IF(AND($G36&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G36),"")</f>
         <v/>
       </c>
     </row>
@@ -2399,7 +2596,7 @@
         <v/>
       </c>
       <c r="J37" s="3" t="str">
-        <f>IF(AND($G37&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G37),"")</f>
+        <f>IF(AND($G37&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G37),"")</f>
         <v/>
       </c>
     </row>
@@ -2409,7 +2606,7 @@
         <v/>
       </c>
       <c r="J38" s="3" t="str">
-        <f>IF(AND($G38&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G38),"")</f>
+        <f>IF(AND($G38&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G38),"")</f>
         <v/>
       </c>
     </row>
@@ -2419,397 +2616,397 @@
         <v/>
       </c>
       <c r="J39" s="3" t="str">
-        <f>IF(AND($G39&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G39),"")</f>
+        <f>IF(AND($G39&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G39),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J40" s="3" t="str">
-        <f>IF(AND($G40&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G40),"")</f>
+        <f>IF(AND($G40&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G40),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J41" s="3" t="str">
-        <f>IF(AND($G41&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G41),"")</f>
+        <f>IF(AND($G41&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G41),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J42" s="3" t="str">
-        <f>IF(AND($G42&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G42),"")</f>
+        <f>IF(AND($G42&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G42),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J43" s="3" t="str">
-        <f>IF(AND($G43&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G43),"")</f>
+        <f>IF(AND($G43&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G43),"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J44" s="3" t="str">
-        <f>IF(AND($G44&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G44),"")</f>
+        <f>IF(AND($G44&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G44),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J45" s="3" t="str">
-        <f>IF(AND($G45&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G45),"")</f>
+        <f>IF(AND($G45&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G45),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J46" s="3" t="str">
-        <f>IF(AND($G46&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G46),"")</f>
+        <f>IF(AND($G46&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G46),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J47" s="3" t="str">
-        <f>IF(AND($G47&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G47),"")</f>
+        <f>IF(AND($G47&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G47),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="5:10" x14ac:dyDescent="0.2">
       <c r="J48" s="3" t="str">
-        <f>IF(AND($G48&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G48),"")</f>
+        <f>IF(AND($G48&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G48),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="3" t="str">
-        <f>IF(AND($G49&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G49),"")</f>
+        <f>IF(AND($G49&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G49),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="3" t="str">
-        <f>IF(AND($G50&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G50),"")</f>
+        <f>IF(AND($G50&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G50),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" s="3" t="str">
-        <f>IF(AND($G51&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G51),"")</f>
+        <f>IF(AND($G51&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G51),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="3" t="str">
-        <f>IF(AND($G52&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G52),"")</f>
+        <f>IF(AND($G52&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G52),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="3" t="str">
-        <f>IF(AND($G53&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G53),"")</f>
+        <f>IF(AND($G53&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G53),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" s="3" t="str">
-        <f>IF(AND($G54&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G54),"")</f>
+        <f>IF(AND($G54&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G54),"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" s="3" t="str">
-        <f>IF(AND($G55&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G55),"")</f>
+        <f>IF(AND($G55&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G55),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" s="3" t="str">
-        <f>IF(AND($G56&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G56),"")</f>
+        <f>IF(AND($G56&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G56),"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" s="3" t="str">
-        <f>IF(AND($G57&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G57),"")</f>
+        <f>IF(AND($G57&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G57),"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" s="3" t="str">
-        <f>IF(AND($G58&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G58),"")</f>
+        <f>IF(AND($G58&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G58),"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" s="3" t="str">
-        <f>IF(AND($G59&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G59),"")</f>
+        <f>IF(AND($G59&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G59),"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" s="3" t="str">
-        <f>IF(AND($G60&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G60),"")</f>
+        <f>IF(AND($G60&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G60),"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" s="3" t="str">
-        <f>IF(AND($G61&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G61),"")</f>
+        <f>IF(AND($G61&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G61),"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" s="3" t="str">
-        <f>IF(AND($G62&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G62),"")</f>
+        <f>IF(AND($G62&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G62),"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" s="3" t="str">
-        <f>IF(AND($G63&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G63),"")</f>
+        <f>IF(AND($G63&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G63),"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" s="3" t="str">
-        <f>IF(AND($G64&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G64),"")</f>
+        <f>IF(AND($G64&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G64),"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" s="3" t="str">
-        <f>IF(AND($G65&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G65),"")</f>
+        <f>IF(AND($G65&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G65),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" s="3" t="str">
-        <f>IF(AND($G66&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G66),"")</f>
+        <f>IF(AND($G66&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G66),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" s="3" t="str">
-        <f>IF(AND($G67&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G67),"")</f>
+        <f>IF(AND($G67&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G67),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68" s="3" t="str">
-        <f>IF(AND($G68&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G68),"")</f>
+        <f>IF(AND($G68&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G68),"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69" s="3" t="str">
-        <f>IF(AND($G69&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G69),"")</f>
+        <f>IF(AND($G69&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G69),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70" s="3" t="str">
-        <f>IF(AND($G70&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G70),"")</f>
+        <f>IF(AND($G70&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G70),"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J71" s="3" t="str">
-        <f>IF(AND($G71&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G71),"")</f>
+        <f>IF(AND($G71&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G71),"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J72" s="3" t="str">
-        <f>IF(AND($G72&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G72),"")</f>
+        <f>IF(AND($G72&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G72),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J73" s="3" t="str">
-        <f>IF(AND($G73&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G73),"")</f>
+        <f>IF(AND($G73&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G73),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J74" s="3" t="str">
-        <f>IF(AND($G74&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G74),"")</f>
+        <f>IF(AND($G74&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G74),"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J75" s="3" t="str">
-        <f>IF(AND($G75&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G75),"")</f>
+        <f>IF(AND($G75&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G75),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J76" s="3" t="str">
-        <f>IF(AND($G76&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G76),"")</f>
+        <f>IF(AND($G76&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G76),"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J77" s="3" t="str">
-        <f>IF(AND($G77&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G77),"")</f>
+        <f>IF(AND($G77&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G77),"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J78" s="3" t="str">
-        <f>IF(AND($G78&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G78),"")</f>
+        <f>IF(AND($G78&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G78),"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J79" s="3" t="str">
-        <f>IF(AND($G79&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G79),"")</f>
+        <f>IF(AND($G79&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G79),"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J80" s="3" t="str">
-        <f>IF(AND($G80&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G80),"")</f>
+        <f>IF(AND($G80&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G80),"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J81" s="3" t="str">
-        <f>IF(AND($G81&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G81),"")</f>
+        <f>IF(AND($G81&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G81),"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J82" s="3" t="str">
-        <f>IF(AND($G82&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G82),"")</f>
+        <f>IF(AND($G82&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G82),"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J83" s="3" t="str">
-        <f>IF(AND($G83&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G83),"")</f>
+        <f>IF(AND($G83&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G83),"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J84" s="3" t="str">
-        <f>IF(AND($G84&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G84),"")</f>
+        <f>IF(AND($G84&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G84),"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J85" s="3" t="str">
-        <f>IF(AND($G85&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G85),"")</f>
+        <f>IF(AND($G85&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G85),"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J86" s="3" t="str">
-        <f>IF(AND($G86&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G86),"")</f>
+        <f>IF(AND($G86&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G86),"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J87" s="3" t="str">
-        <f>IF(AND($G87&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G87),"")</f>
+        <f>IF(AND($G87&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G87),"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J88" s="3" t="str">
-        <f>IF(AND($G88&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G88),"")</f>
+        <f>IF(AND($G88&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G88),"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J89" s="3" t="str">
-        <f>IF(AND($G89&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G89),"")</f>
+        <f>IF(AND($G89&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G89),"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J90" s="3" t="str">
-        <f>IF(AND($G90&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G90),"")</f>
+        <f>IF(AND($G90&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G90),"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J91" s="3" t="str">
-        <f>IF(AND($G91&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G91),"")</f>
+        <f>IF(AND($G91&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G91),"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J92" s="3" t="str">
-        <f>IF(AND($G92&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G92),"")</f>
+        <f>IF(AND($G92&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G92),"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J93" s="3" t="str">
-        <f>IF(AND($G93&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G93),"")</f>
+        <f>IF(AND($G93&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G93),"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J94" s="3" t="str">
-        <f>IF(AND($G94&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G94),"")</f>
+        <f>IF(AND($G94&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G94),"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J95" s="3" t="str">
-        <f>IF(AND($G95&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G95),"")</f>
+        <f>IF(AND($G95&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G95),"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J96" s="3" t="str">
-        <f>IF(AND($G96&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G96),"")</f>
+        <f>IF(AND($G96&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G96),"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J97" s="3" t="str">
-        <f>IF(AND($G97&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G97),"")</f>
+        <f>IF(AND($G97&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G97),"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J98" s="3" t="str">
-        <f>IF(AND($G98&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G98),"")</f>
+        <f>IF(AND($G98&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G98),"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J99" s="3" t="str">
-        <f>IF(AND($G99&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G99),"")</f>
+        <f>IF(AND($G99&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G99),"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J100" s="3" t="str">
-        <f>IF(AND($G100&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G100),"")</f>
+        <f>IF(AND($G100&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G100),"")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J101" s="3" t="str">
-        <f>IF(AND($G101&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G101),"")</f>
+        <f>IF(AND($G101&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G101),"")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J102" s="3" t="str">
-        <f>IF(AND($G102&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G102),"")</f>
+        <f>IF(AND($G102&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G102),"")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J103" s="3" t="str">
-        <f>IF(AND($G103&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G103),"")</f>
+        <f>IF(AND($G103&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G103),"")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J104" s="3" t="str">
-        <f>IF(AND($G104&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G104),"")</f>
+        <f>IF(AND($G104&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G104),"")</f>
         <v/>
       </c>
       <c r="K104" s="3" t="e">
@@ -2823,7 +3020,7 @@
     </row>
     <row r="105" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J105" s="3" t="str">
-        <f>IF(AND($G105&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G105),"")</f>
+        <f>IF(AND($G105&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G105),"")</f>
         <v/>
       </c>
       <c r="K105" s="3" t="e">
@@ -2837,7 +3034,7 @@
     </row>
     <row r="106" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J106" s="3" t="str">
-        <f>IF(AND($G106&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G106),"")</f>
+        <f>IF(AND($G106&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G106),"")</f>
         <v/>
       </c>
       <c r="K106" s="3" t="e">
@@ -2851,7 +3048,7 @@
     </row>
     <row r="107" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J107" s="3" t="str">
-        <f>IF(AND($G107&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G107),"")</f>
+        <f>IF(AND($G107&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G107),"")</f>
         <v/>
       </c>
       <c r="K107" s="3" t="e">
@@ -2865,7 +3062,7 @@
     </row>
     <row r="108" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J108" s="3" t="str">
-        <f>IF(AND($G108&lt;&gt;"",daily!E$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!E$1,$A:$A,$G108),"")</f>
+        <f>IF(AND($G108&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G108),"")</f>
         <v/>
       </c>
       <c r="K108" s="3" t="e">
@@ -2896,129 +3093,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD22EC45-D055-4B95-9C83-FCF93466C740}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="10">
         <v>44666</v>
       </c>
       <c r="C2" s="8">
-        <f>IF(AND($B2&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B2),"")</f>
-        <v>0.25347222222222221</v>
+        <f>SUM($D2:$XFD2)</f>
+        <v>0.28749999999999998</v>
       </c>
       <c r="D2" s="8">
         <f>IF(AND($B2&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B2),"")</f>
-        <v>0</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="E2" s="8">
         <f>IF(AND($B2&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B2),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <f>IF(AND($B2&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B2),"")</f>
         <v>3.4027777777777768E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="10">
         <v>44667</v>
       </c>
       <c r="C3" s="8">
-        <f>IF(AND($B3&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B3),"")</f>
-        <v>9.9305555555555536E-2</v>
+        <f t="shared" ref="C3:C17" si="0">SUM($D3:$XFD3)</f>
+        <v>0.23472222222222239</v>
       </c>
       <c r="D3" s="8">
         <f>IF(AND($B3&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B3),"")</f>
-        <v>0.11805555555555569</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="E3" s="8">
         <f>IF(AND($B3&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B3),"")</f>
+        <v>0.11805555555555569</v>
+      </c>
+      <c r="F3" s="8">
+        <f>IF(AND($B3&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B3),"")</f>
         <v>1.736111111111116E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="10">
         <v>44668</v>
       </c>
       <c r="C4" s="8">
-        <f>IF(AND($B4&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B4),"")</f>
-        <v>6.944444444444442E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.25694444444444453</v>
       </c>
       <c r="D4" s="8">
         <f>IF(AND($B4&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B4),"")</f>
-        <v>0.16666666666666674</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="E4" s="8">
         <f>IF(AND($B4&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B4),"")</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="F4" s="8">
+        <f>IF(AND($B4&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B4),"")</f>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10">
         <v>44669</v>
       </c>
       <c r="C5" s="8">
-        <f>IF(AND($B5&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B5),"")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.2006944444444444</v>
       </c>
       <c r="D5" s="8">
         <f>IF(AND($B5&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B5),"")</f>
-        <v>0.18333333333333324</v>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
         <f>IF(AND($B5&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B5),"")</f>
+        <v>0.18333333333333324</v>
+      </c>
+      <c r="F5" s="8">
+        <f>IF(AND($B5&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B5),"")</f>
         <v>1.736111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <v>44670</v>
       </c>
       <c r="C6" s="8">
-        <f>IF(AND($B6&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B6),"")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.28263888888888899</v>
       </c>
       <c r="D6" s="8">
         <f>IF(AND($B6&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B6),"")</f>
-        <v>0</v>
+        <v>0.13680555555555551</v>
       </c>
       <c r="E6" s="8">
         <f>IF(AND($B6&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B6),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.11527777777777781</v>
+      </c>
+      <c r="F6" s="8">
+        <f>IF(AND($B6&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B6),"")</f>
+        <v>3.0555555555555669E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="10">
         <v>44671</v>
       </c>
       <c r="C7" s="8">
-        <f>IF(AND($B7&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B7),"")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.26805555555555582</v>
       </c>
       <c r="D7" s="8">
         <f>IF(AND($B7&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B7),"")</f>
@@ -3026,16 +3246,23 @@
       </c>
       <c r="E7" s="8">
         <f>IF(AND($B7&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B7),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.2465277777777779</v>
+      </c>
+      <c r="F7" s="8">
+        <f>IF(AND($B7&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B7),"")</f>
+        <v>2.1527777777777923E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="10">
         <v>44672</v>
       </c>
       <c r="C8" s="8">
-        <f>IF(AND($B8&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B8),"")</f>
-        <v>0</v>
+        <f>SUM($D8:$XFD8)</f>
+        <v>5.5555555555555636E-3</v>
       </c>
       <c r="D8" s="8">
         <f>IF(AND($B8&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B8),"")</f>
@@ -3045,14 +3272,21 @@
         <f>IF(AND($B8&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B8),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="8">
+        <f>IF(AND($B8&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B8),"")</f>
+        <v>5.5555555555555636E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="10">
         <v>44673</v>
       </c>
       <c r="C9" s="8">
-        <f>IF(AND($B9&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B9),"")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.9722222222222343E-2</v>
       </c>
       <c r="D9" s="8">
         <f>IF(AND($B9&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B9),"")</f>
@@ -3060,15 +3294,19 @@
       </c>
       <c r="E9" s="8">
         <f>IF(AND($B9&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B9),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <f>IF(AND($B9&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B9),"")</f>
+        <v>1.8055555555555602E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
         <v>44674</v>
       </c>
       <c r="C10" s="8">
-        <f>IF(AND($B10&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B10),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="8">
@@ -3079,13 +3317,17 @@
         <f>IF(AND($B10&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B10),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="8">
+        <f>IF(AND($B10&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B10),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
         <v>44675</v>
       </c>
       <c r="C11" s="8">
-        <f>IF(AND($B11&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B11),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="8">
@@ -3096,13 +3338,17 @@
         <f>IF(AND($B11&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B11),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="8">
+        <f>IF(AND($B11&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B11),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <v>44676</v>
       </c>
       <c r="C12" s="8">
-        <f>IF(AND($B12&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B12),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12" s="8">
@@ -3113,13 +3359,17 @@
         <f>IF(AND($B12&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B12),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="8">
+        <f>IF(AND($B12&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B12),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <v>44677</v>
       </c>
       <c r="C13" s="8">
-        <f>IF(AND($B13&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B13),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="8">
@@ -3130,13 +3380,17 @@
         <f>IF(AND($B13&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B13),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="8">
+        <f>IF(AND($B13&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B13),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <v>44678</v>
       </c>
       <c r="C14" s="8">
-        <f>IF(AND($B14&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B14),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="8">
@@ -3147,13 +3401,17 @@
         <f>IF(AND($B14&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B14),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="8">
+        <f>IF(AND($B14&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B14),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="10">
         <v>44679</v>
       </c>
       <c r="C15" s="8">
-        <f>IF(AND($B15&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B15),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="8">
@@ -3164,13 +3422,17 @@
         <f>IF(AND($B15&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B15),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="8">
+        <f>IF(AND($B15&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B15),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
         <v>44680</v>
       </c>
       <c r="C16" s="8">
-        <f>IF(AND($B16&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B16),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="8">
@@ -3181,13 +3443,17 @@
         <f>IF(AND($B16&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B16),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="8">
+        <f>IF(AND($B16&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B16),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="10">
         <v>44681</v>
       </c>
       <c r="C17" s="8">
-        <f>IF(AND($B17&lt;&gt;"",C$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,C$1,mark!$A:$A,$B17),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="8">
@@ -3196,6 +3462,10 @@
       </c>
       <c r="E17" s="8">
         <f>IF(AND($B17&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B17),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <f>IF(AND($B17&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B17),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3209,7 +3479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB6B33A-FAA2-4895-A089-755624B60A35}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>

--- a/ForSZU/time.xlsx
+++ b/ForSZU/time.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Notes\ForSZU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD043272-9A35-4BAF-9AAE-361EE477A24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA36FE4-688D-47DC-B787-47CDE7EBBB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="4620" windowWidth="11625" windowHeight="8700" activeTab="2" xr2:uid="{72D55CEA-563E-49C6-A9F9-882865430C6E}"/>
+    <workbookView xWindow="14100" yWindow="2820" windowWidth="11625" windowHeight="8700" activeTab="2" xr2:uid="{72D55CEA-563E-49C6-A9F9-882865430C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="mark" sheetId="1" r:id="rId1"/>
     <sheet name="daily" sheetId="3" r:id="rId2"/>
-    <sheet name="4" sheetId="2" r:id="rId3"/>
+    <sheet name="average" sheetId="4" r:id="rId3"/>
+    <sheet name="4" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +94,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="179" formatCode="mm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +175,12 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,10 +413,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.3055555555555514E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4.9305555555555602E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -607,13 +615,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.15416666666666656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.2916666666666696E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.23750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -809,13 +817,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.4583333333333282E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777783E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.361111111111136E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1938,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162C499C-FD3A-4C4D-8378-8FD4C0BFF15F}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2511,9 +2519,21 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A29" s="10">
+        <v>44675</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15416666666666656</v>
       </c>
       <c r="J29" s="3" t="str">
         <f>IF(AND($G29&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G29),"")</f>
@@ -2521,9 +2541,21 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A30" s="10">
+        <v>44675</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>4.3055555555555514E-2</v>
       </c>
       <c r="J30" s="3" t="str">
         <f>IF(AND($G30&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G30),"")</f>
@@ -2531,9 +2563,21 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A31" s="10">
+        <v>44675</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333282E-2</v>
       </c>
       <c r="J31" s="3" t="str">
         <f>IF(AND($G31&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G31),"")</f>
@@ -2541,76 +2585,160 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A32" s="10">
+        <v>44676</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.58958333333333335</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9305555555555602E-2</v>
       </c>
       <c r="J32" s="3" t="str">
         <f>IF(AND($G32&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G32),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>44676</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>2.2916666666666696E-2</v>
       </c>
       <c r="J33" s="3" t="str">
         <f>IF(AND($G33&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G33),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>44676</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777783E-3</v>
       </c>
       <c r="J34" s="3" t="str">
         <f>IF(AND($G34&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G34),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>44677</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5694444444444464E-2</v>
       </c>
       <c r="J35" s="3" t="str">
         <f>IF(AND($G35&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G35),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>44677</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>6.1111111111111116E-2</v>
       </c>
       <c r="J36" s="3" t="str">
         <f>IF(AND($G36&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G36),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>44677</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15069444444444446</v>
       </c>
       <c r="J37" s="3" t="str">
         <f>IF(AND($G37&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G37),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>44677</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.99861111111111101</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>2.361111111111136E-2</v>
       </c>
       <c r="J38" s="3" t="str">
         <f>IF(AND($G38&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G38),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E39" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2620,55 +2748,55 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J40" s="3" t="str">
         <f>IF(AND($G40&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G40),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J41" s="3" t="str">
         <f>IF(AND($G41&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G41),"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J42" s="3" t="str">
         <f>IF(AND($G42&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G42),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J43" s="3" t="str">
         <f>IF(AND($G43&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G43),"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J44" s="3" t="str">
         <f>IF(AND($G44&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G44),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J45" s="3" t="str">
         <f>IF(AND($G45&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G45),"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J46" s="3" t="str">
         <f>IF(AND($G46&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G46),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J47" s="3" t="str">
         <f>IF(AND($G47&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G47),"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J48" s="3" t="str">
         <f>IF(AND($G48&lt;&gt;"",daily!F$1&lt;&gt;""),SUMIFS($E:$E,$B:$B,daily!F$1,$A:$A,$G48),"")</f>
         <v/>
@@ -3093,10 +3221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD22EC45-D055-4B95-9C83-FCF93466C740}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3108,7 +3236,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -3328,19 +3456,19 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21180555555555536</v>
       </c>
       <c r="D11" s="8">
         <f>IF(AND($B11&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B11),"")</f>
-        <v>0</v>
+        <v>4.3055555555555514E-2</v>
       </c>
       <c r="E11" s="8">
         <f>IF(AND($B11&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B11),"")</f>
-        <v>0</v>
+        <v>0.15416666666666656</v>
       </c>
       <c r="F11" s="8">
         <f>IF(AND($B11&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B11),"")</f>
-        <v>0</v>
+        <v>1.4583333333333282E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3349,19 +3477,19 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.500000000000008E-2</v>
       </c>
       <c r="D12" s="8">
         <f>IF(AND($B12&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B12),"")</f>
-        <v>0</v>
+        <v>4.9305555555555602E-2</v>
       </c>
       <c r="E12" s="8">
         <f>IF(AND($B12&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B12),"")</f>
-        <v>0</v>
+        <v>2.2916666666666696E-2</v>
       </c>
       <c r="F12" s="8">
         <f>IF(AND($B12&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B12),"")</f>
-        <v>0</v>
+        <v>2.7777777777777783E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3370,7 +3498,7 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2611111111111114</v>
       </c>
       <c r="D13" s="8">
         <f>IF(AND($B13&lt;&gt;"",D$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,D$1,mark!$A:$A,$B13),"")</f>
@@ -3378,11 +3506,11 @@
       </c>
       <c r="E13" s="8">
         <f>IF(AND($B13&lt;&gt;"",E$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,E$1,mark!$A:$A,$B13),"")</f>
-        <v>0</v>
+        <v>0.23750000000000004</v>
       </c>
       <c r="F13" s="8">
         <f>IF(AND($B13&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B13),"")</f>
-        <v>0</v>
+        <v>2.361111111111136E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3390,7 +3518,7 @@
         <v>44678</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM($D14:$XFD14)</f>
         <v>0</v>
       </c>
       <c r="D14" s="8">
@@ -3468,6 +3596,12 @@
         <f>IF(AND($B17&lt;&gt;"",F$1&lt;&gt;""),SUMIFS(mark!$E:$E,mark!$B:$B,F$1,mark!$A:$A,$B17),"")</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3476,11 +3610,243 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFA187D-F6D0-42A7-AD7C-5C84A8DE23AE}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="str">
+        <f>daily!B1</f>
+        <v>日期</v>
+      </c>
+      <c r="B1" s="12" t="str">
+        <f>daily!C1</f>
+        <v>总计</v>
+      </c>
+      <c r="C1" s="12" t="str">
+        <f>daily!D1</f>
+        <v>高数课</v>
+      </c>
+      <c r="D1" s="12" t="str">
+        <f>daily!E1</f>
+        <v>高数练习</v>
+      </c>
+      <c r="E1" s="12" t="str">
+        <f>daily!F1</f>
+        <v>墨墨</v>
+      </c>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>44652</v>
+      </c>
+      <c r="B2" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3))</f>
+        <v>0.13398437500000004</v>
+      </c>
+      <c r="C2" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3))</f>
+        <v>4.071180555555555E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3))</f>
+        <v>8.0381944444444464E-2</v>
+      </c>
+      <c r="E2" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A2,daily!$B:$B,"&lt;"&amp;$A3))</f>
+        <v>1.2890625000000039E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>44682</v>
+      </c>
+      <c r="B3" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4))</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A3,daily!$B:$B,"&lt;"&amp;$A4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>44713</v>
+      </c>
+      <c r="B4" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A4,daily!$B:$B,"&lt;"&amp;$A5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>44743</v>
+      </c>
+      <c r="B5" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6))</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A5,daily!$B:$B,"&lt;"&amp;$A6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>44774</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7))</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7))</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A6,daily!$B:$B,"&lt;"&amp;$A7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>44805</v>
+      </c>
+      <c r="B7" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A7,daily!$B:$B,"&lt;"&amp;$A8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>44835</v>
+      </c>
+      <c r="B8" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9))</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A8,daily!$B:$B,"&lt;"&amp;$A9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>44866</v>
+      </c>
+      <c r="B9" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10))</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A9,daily!$B:$B,"&lt;"&amp;$A10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>44896</v>
+      </c>
+      <c r="B10" s="7">
+        <f>SUMIFS(daily!C:C,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11))</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <f>SUMIFS(daily!D:D,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUMIFS(daily!E:E,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f>SUMIFS(daily!F:F,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11)/(_xlfn.MAXIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11)+1-_xlfn.MINIFS(daily!$B:$B,daily!$B:$B,"&gt;="&amp;$A10,daily!$B:$B,"&lt;"&amp;$A11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB6B33A-FAA2-4895-A089-755624B60A35}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
